--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoen110/Documents/Courses/Research Project/Small Sample Time Series Forecasting/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E031BF-7215-7E46-AECB-85650D3A03CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BEA71B-EB32-B54F-A02B-AA94A0FDC345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1120" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{CF863312-F886-1B4A-8C04-7CE9CB41AE4C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{CF863312-F886-1B4A-8C04-7CE9CB41AE4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MLP_O" sheetId="2" r:id="rId2"/>
-    <sheet name="MLP_D" sheetId="4" r:id="rId3"/>
-    <sheet name="RNN_O" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="MLP_O" sheetId="2" r:id="rId3"/>
+    <sheet name="MLP_D" sheetId="4" r:id="rId4"/>
+    <sheet name="RNN_O" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
   <si>
     <t>Period</t>
   </si>
@@ -122,16 +117,20 @@
   <si>
     <t>RNN with seed(42), batch_size(30) and epochs(20)</t>
   </si>
+  <si>
+    <t>MLP with importance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,8 +149,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -214,121 +220,22 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -423,7 +330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -722,15 +629,15 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="52" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -753,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" thickBot="1">
       <c r="A2" s="3">
         <v>1256</v>
       </c>
@@ -776,7 +683,7 @@
         <v>0.57620000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17" thickBot="1">
       <c r="A3" s="3">
         <v>1255</v>
       </c>
@@ -799,7 +706,7 @@
         <v>0.57789999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17" thickBot="1">
       <c r="A4" s="3">
         <v>1254</v>
       </c>
@@ -822,7 +729,7 @@
         <v>0.58009999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" thickBot="1">
       <c r="A5" s="3">
         <v>1253</v>
       </c>
@@ -845,7 +752,7 @@
         <v>0.56669999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17" thickBot="1">
       <c r="A6" s="3">
         <v>1252</v>
       </c>
@@ -868,7 +775,7 @@
         <v>0.56720000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17" thickBot="1">
       <c r="A7" s="3">
         <v>1251</v>
       </c>
@@ -891,123 +798,123 @@
         <v>0.53669999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <f>AVERAGE(B2:B7)</f>
         <v>0.71466666666666656</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f t="shared" ref="C8:G8" si="0">AVERAGE(C2:C7)</f>
         <v>0.58340000000000003</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0.56159999999999999</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>0.55741666666666667</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>0.61988333333333334</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>0.56746666666666667</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f>AVERAGE(B8:E8)</f>
         <v>0.60427083333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.73277869132997298</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.626251774126518</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.60176310110461395</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.57579217350399903</v>
       </c>
-      <c r="F9" s="10">
-        <f>AVERAGE(B9:D9)</f>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:G11" si="1">AVERAGE(B9:D9)</f>
         <v>0.65359785552036831</v>
       </c>
-      <c r="G9" s="10">
-        <f>AVERAGE(C9:E9)</f>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
         <v>0.6012690162450437</v>
       </c>
-      <c r="H9" s="10">
-        <f t="shared" ref="H9:H11" si="1">AVERAGE(B9:E9)</f>
+      <c r="H9" s="8">
+        <f t="shared" ref="H9:H11" si="2">AVERAGE(B9:E9)</f>
         <v>0.63414643501627599</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.73350915564761998</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.62343245101372602</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.59534681686651403</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.57117248251186203</v>
       </c>
-      <c r="F10" s="10">
-        <f>AVERAGE(B10:D10)</f>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
         <v>0.65076280784262008</v>
       </c>
-      <c r="G10" s="10">
-        <f>AVERAGE(C10:E10)</f>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
         <v>0.59665058346403399</v>
       </c>
-      <c r="H10" s="10">
-        <f t="shared" si="1"/>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
         <v>0.6308652265099306</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>0.73814407236224699</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>0.62762062511790295</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>0.59818328779315599</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>0.57986523522946598</v>
       </c>
-      <c r="F11" s="10">
-        <f>AVERAGE(B11:D11)</f>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
         <v>0.65464932842443535</v>
       </c>
-      <c r="G11" s="10">
-        <f>AVERAGE(C11:E11)</f>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
         <v>0.60188971604684161</v>
       </c>
-      <c r="H11" s="10">
-        <f t="shared" si="1"/>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
         <v>0.63595330512569304</v>
       </c>
       <c r="I11" s="1">
@@ -1015,18 +922,366 @@
         <v>3.1682471792359723E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="G15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DF814C-DF1E-8B4E-8293-93ED0CB085B6}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9">
+        <v>62.08</v>
+      </c>
+      <c r="B1" s="9">
+        <v>58.5</v>
+      </c>
+      <c r="C1" s="9">
+        <v>55.64</v>
+      </c>
+      <c r="D1" s="9">
+        <v>45</v>
+      </c>
+      <c r="E1" s="9">
+        <v>58.74</v>
+      </c>
+      <c r="F1" s="9">
+        <v>53.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9">
+        <v>70.83</v>
+      </c>
+      <c r="B2" s="9">
+        <v>59.92</v>
+      </c>
+      <c r="C2" s="9">
+        <v>48.49</v>
+      </c>
+      <c r="D2" s="9">
+        <v>55.19</v>
+      </c>
+      <c r="E2" s="9">
+        <v>59.75</v>
+      </c>
+      <c r="F2" s="9">
+        <v>54.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
+        <v>69.17</v>
+      </c>
+      <c r="B3" s="9">
+        <v>49.49</v>
+      </c>
+      <c r="C3" s="9">
+        <v>56.64</v>
+      </c>
+      <c r="D3" s="9">
+        <v>55.08</v>
+      </c>
+      <c r="E3" s="9">
+        <v>58.43</v>
+      </c>
+      <c r="F3" s="9">
+        <v>53.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>67.709999999999994</v>
+      </c>
+      <c r="B4" s="9">
+        <v>59.28</v>
+      </c>
+      <c r="C4" s="9">
+        <v>56.8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>55.01</v>
+      </c>
+      <c r="E4" s="9">
+        <v>61.26</v>
+      </c>
+      <c r="F4" s="9">
+        <v>57.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>69.75</v>
+      </c>
+      <c r="B5" s="9">
+        <v>58.68</v>
+      </c>
+      <c r="C5" s="9">
+        <v>56.97</v>
+      </c>
+      <c r="D5" s="9">
+        <v>56.37</v>
+      </c>
+      <c r="E5" s="9">
+        <v>61.8</v>
+      </c>
+      <c r="F5" s="9">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>67.77</v>
+      </c>
+      <c r="B6" s="9">
+        <v>56.54</v>
+      </c>
+      <c r="C6" s="9">
+        <v>55.27</v>
+      </c>
+      <c r="D6" s="9">
+        <v>50.48</v>
+      </c>
+      <c r="E6" s="9">
+        <v>59.86</v>
+      </c>
+      <c r="F6" s="9">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f>AVERAGE(A1:A6)</f>
+        <v>67.884999999999991</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:F9" si="0">AVERAGE(B1:B6)</f>
+        <v>57.068333333333335</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>54.968333333333327</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>52.854999999999997</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>59.973333333333336</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>56.631666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>68.23</v>
+      </c>
+      <c r="B12">
+        <v>58.7</v>
+      </c>
+      <c r="C12">
+        <v>55.76</v>
+      </c>
+      <c r="D12">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(A12:C12)</f>
+        <v>60.896666666666668</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(B12:D12)</f>
+        <v>56.153333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>70.92</v>
+      </c>
+      <c r="B13">
+        <v>59.7</v>
+      </c>
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>55.16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E17" si="1">AVERAGE(A13:C13)</f>
+        <v>62.54</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F17" si="2">AVERAGE(B13:D13)</f>
+        <v>57.286666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>69.22</v>
+      </c>
+      <c r="B14">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>56.45</v>
+      </c>
+      <c r="D14">
+        <v>55.09</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>61.556666666666672</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>56.846666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>67.61</v>
+      </c>
+      <c r="B15">
+        <v>59.22</v>
+      </c>
+      <c r="C15">
+        <v>56.82</v>
+      </c>
+      <c r="D15">
+        <v>54.85</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>61.216666666666669</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>56.963333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="B16">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>56.17</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>61.883333333333333</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>57.390000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>67.7</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>60.566666666666663</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>55.666666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f>AVERAGE(A12:A17)</f>
+        <v>68.888333333333335</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F19" si="3">AVERAGE(B12:B17)</f>
+        <v>58.936666666666667</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>56.504999999999995</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>54.711666666666666</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>61.443333333333335</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>56.717777777777776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="B27">
+        <v>63.26</v>
+      </c>
+      <c r="C27">
+        <v>58.97</v>
+      </c>
+      <c r="D27">
+        <v>56.67</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(A27:C27)</f>
+        <v>65.413333333333341</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(B27:D27)</f>
+        <v>59.633333333333326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9192C189-EC3B-B64B-B674-E7856A02C849}">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -1034,35 +1289,35 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1176,7 +1431,7 @@
         <v>0.52836526035541798</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1214,7 +1469,7 @@
         <v>0.53221773007706197</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1252,7 +1507,7 @@
         <v>0.53590676071001198</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1290,7 +1545,7 @@
         <v>0.54276609042083102</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1328,7 +1583,7 @@
         <v>0.56218192923728605</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1366,7 +1621,7 @@
         <v>0.54041806243480595</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1404,7 +1659,7 @@
         <v>0.53981854418391395</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1442,7 +1697,7 @@
         <v>0.57153842080726103</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1480,7 +1735,7 @@
         <v>0.56942021960833</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1518,7 +1773,7 @@
         <v>0.53564721274275495</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1556,7 +1811,7 @@
         <v>0.53315417908861895</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1594,7 +1849,7 @@
         <v>0.57280105896089595</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1632,14 +1887,14 @@
         <v>0.57107127040869499</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="17" spans="1:15">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1.43368542194366E-2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>0.73277869132997298</v>
       </c>
       <c r="E17">
@@ -1670,7 +1925,7 @@
         <v>0.52465188857468403</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1708,7 +1963,7 @@
         <v>0.50630708911731204</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1736,17 +1991,17 @@
       <c r="K19">
         <v>0.52765423156105395</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>15</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>4.7812797129154198E-2</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>0.57579217350399903</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1784,7 +2039,7 @@
         <v>0.50142810502416402</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1822,7 +2077,7 @@
         <v>0.56445993055773602</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1860,7 +2115,7 @@
         <v>0.47561256005500402</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1870,13 +2125,13 @@
       <c r="C23">
         <v>0.60410349944092101</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>19</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>3.4632466733455602E-2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.626251774126518</v>
       </c>
       <c r="I23">
@@ -1898,7 +2153,7 @@
         <v>0.56442963350337805</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1917,13 +2172,13 @@
       <c r="G24">
         <v>0.61278775654751305</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>20</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>3.9267662912607103E-2</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>0.60176310110461395</v>
       </c>
       <c r="M24">
@@ -1936,7 +2191,7 @@
         <v>0.45871663534100998</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1974,7 +2229,7 @@
         <v>0.52376992488984098</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -2012,7 +2267,7 @@
         <v>0.55682713632935799</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -2050,7 +2305,7 @@
         <v>0.44881504130600902</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2088,7 +2343,7 @@
         <v>0.303614671861059</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2126,7 +2381,7 @@
         <v>0.41156656333893799</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -2164,7 +2419,7 @@
         <v>0.50734749150158898</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2202,7 +2457,7 @@
         <v>0.40268758787363401</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2240,7 +2495,7 @@
         <v>0.33236229737173201</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2278,7 +2533,7 @@
         <v>0.47717412075386401</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>30</v>
       </c>
@@ -2316,15 +2571,15 @@
         <v>0.37003076982900601</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:15">
+      <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="B39" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +2607,7 @@
         <v>0.73277869100000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -2366,7 +2621,7 @@
         <v>0.626251774126518</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -2380,7 +2635,7 @@
         <v>0.60176310110461395</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="B42" t="s">
         <v>25</v>
       </c>
@@ -2402,11 +2657,12 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="B37:E37"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BC90EE-1C9A-D648-AB23-8181FC24BE8D}">
   <dimension ref="A1:O41"/>
   <sheetViews>
@@ -2414,35 +2670,35 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2518,7 +2774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2556,7 +2812,7 @@
         <v>0.52529831628103996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2594,7 +2850,7 @@
         <v>0.4509296173431</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2632,7 +2888,7 @@
         <v>0.35969438316493801</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2670,7 +2926,7 @@
         <v>0.56298874709725599</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2708,7 +2964,7 @@
         <v>0.54007015102996103</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2727,13 +2983,13 @@
       <c r="G9">
         <v>0.61452616822306105</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>5</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>5.3571749478578498E-2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>0.59534681686651403</v>
       </c>
       <c r="M9">
@@ -2746,7 +3002,7 @@
         <v>0.53792156633433696</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2784,7 +3040,7 @@
         <v>0.57009739109601998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2822,7 +3078,7 @@
         <v>0.53843233711722205</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2860,7 +3116,7 @@
         <v>0.53573318184324703</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2898,7 +3154,7 @@
         <v>0.53740222078787203</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2926,17 +3182,17 @@
       <c r="K14">
         <v>0.555970008769889</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>10</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>5.5842097848653703E-2</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>0.57117248251186203</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2974,7 +3230,7 @@
         <v>0.52475851897710901</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2984,13 +3240,13 @@
       <c r="C16">
         <v>0.69602078605460804</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>12</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>3.9866283535957302E-2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0.62343245101372602</v>
       </c>
       <c r="I16">
@@ -3012,7 +3268,7 @@
         <v>0.52213238660859096</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3050,14 +3306,14 @@
         <v>0.57023891417614403</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+    <row r="18" spans="1:15">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1.44445998594164E-2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>0.73350915564761998</v>
       </c>
       <c r="E18">
@@ -3088,7 +3344,7 @@
         <v>0.50458389648146196</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3126,7 +3382,7 @@
         <v>0.56810681919359596</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3164,7 +3420,7 @@
         <v>0.48040554259982199</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3202,7 +3458,7 @@
         <v>0.49028405616106502</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3240,7 +3496,7 @@
         <v>0.462249764585839</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3278,7 +3534,7 @@
         <v>0.43068173874297</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3316,7 +3572,7 @@
         <v>0.47784697531521497</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -3354,7 +3610,7 @@
         <v>0.45885281502421799</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -3392,7 +3648,7 @@
         <v>0.46393094175835697</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3430,7 +3686,7 @@
         <v>0.52018598144164696</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -3468,7 +3724,7 @@
         <v>0.484558921444188</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -3506,7 +3762,7 @@
         <v>0.38050918454789001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -3544,7 +3800,7 @@
         <v>0.34871742495313601</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -3582,7 +3838,7 @@
         <v>0.50342572097859295</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -3620,7 +3876,7 @@
         <v>0.37311998232090798</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -3658,7 +3914,7 @@
         <v>0.47999737708852802</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>30</v>
       </c>
@@ -3696,81 +3952,81 @@
         <v>8.4432775572183802E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:15">
+      <c r="B36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="9" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="B37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:15">
+      <c r="B38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <v>14</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>1.44445998594164E-2</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>0.73350915564761998</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:15">
+      <c r="B39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>12</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>3.9866283535957302E-2</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <v>0.62343245101372602</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:15">
+      <c r="B40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="7">
         <v>5</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>5.3571749478578498E-2</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <v>0.59534681686651403</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:15">
+      <c r="B41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>10</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>5.5842097848653703E-2</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>0.57117248251186203</v>
       </c>
     </row>
@@ -3782,43 +4038,44 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="B36:E36"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B427C3BF-350A-BD42-9B37-D089696C49D9}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3856,7 +4113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3894,7 +4151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3932,7 +4189,7 @@
         <v>0.53432179961500803</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3970,7 +4227,7 @@
         <v>0.55653714784919195</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4008,7 +4265,7 @@
         <v>0.54538427392425903</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4046,7 +4303,7 @@
         <v>0.54080976921462298</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4084,7 +4341,7 @@
         <v>0.54902478428082202</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4122,7 +4379,7 @@
         <v>0.56387275975394202</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4160,7 +4417,7 @@
         <v>0.54115202951718</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4198,7 +4455,7 @@
         <v>0.54308791033547199</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4236,7 +4493,7 @@
         <v>0.53523109725348506</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4274,7 +4531,7 @@
         <v>0.53430188246384502</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4312,7 +4569,7 @@
         <v>0.529328954742594</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -4350,7 +4607,7 @@
         <v>0.56648080121905997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4388,7 +4645,7 @@
         <v>0.57228538928403605</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -4426,7 +4683,7 @@
         <v>0.52160385250409602</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -4464,7 +4721,7 @@
         <v>0.52063589511583697</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -4502,7 +4759,7 @@
         <v>0.50922922922138503</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -4540,7 +4797,7 @@
         <v>0.56732861163886705</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -4578,7 +4835,7 @@
         <v>0.49583649782371803</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -4616,7 +4873,7 @@
         <v>0.49468582487552998</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -4654,7 +4911,7 @@
         <v>0.57667950883476504</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4692,7 +4949,7 @@
         <v>0.47745666474604498</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -4730,7 +4987,7 @@
         <v>0.57986523522946598</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -4768,7 +5025,7 @@
         <v>0.468575538102394</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -4806,7 +5063,7 @@
         <v>0.46225420858139799</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -4844,7 +5101,7 @@
         <v>0.579064828726646</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -4882,7 +5139,7 @@
         <v>0.43504570369296702</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -4920,7 +5177,7 @@
         <v>0.42986238778535901</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -4958,7 +5215,7 @@
         <v>0.41643521833779701</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -4996,7 +5253,7 @@
         <v>0.57412180380311495</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -5034,7 +5291,7 @@
         <v>0.39222192048451998</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>30</v>
       </c>
@@ -5072,15 +5329,15 @@
         <v>0.386356954318054</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:15">
+      <c r="B37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -5094,7 +5351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="B39" t="s">
         <v>22</v>
       </c>
@@ -5108,7 +5365,7 @@
         <v>0.73814407236224699</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="B40" t="s">
         <v>23</v>
       </c>
@@ -5122,7 +5379,7 @@
         <v>0.62762062511790295</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -5136,7 +5393,7 @@
         <v>0.59818328779315599</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="B42" t="s">
         <v>25</v>
       </c>
@@ -5158,29 +5415,30 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="B37:E37"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C3:C34">
-    <cfRule type="top10" dxfId="13" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="top10" dxfId="12" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="top10" dxfId="11" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K34">
-    <cfRule type="top10" dxfId="9" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="top10" dxfId="7" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O34">
-    <cfRule type="top10" dxfId="6" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="top10" dxfId="5" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
